--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tgfb3-Eng.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tgfb3-Eng.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.095295</v>
+        <v>2.7354205</v>
       </c>
       <c r="H2">
-        <v>2.19059</v>
+        <v>5.470841</v>
       </c>
       <c r="I2">
-        <v>0.0366913822929187</v>
+        <v>0.1099128184465388</v>
       </c>
       <c r="J2">
-        <v>0.02977214083056145</v>
+        <v>0.08912955237205787</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>260.047928</v>
+        <v>240.859306</v>
       </c>
       <c r="N2">
-        <v>520.0958559999999</v>
+        <v>481.718612</v>
       </c>
       <c r="O2">
-        <v>0.5333246545957802</v>
+        <v>0.770495783518506</v>
       </c>
       <c r="P2">
-        <v>0.4360150557860642</v>
+        <v>0.7103085338816119</v>
       </c>
       <c r="Q2">
-        <v>284.8291952987599</v>
+        <v>658.8514832481731</v>
       </c>
       <c r="R2">
-        <v>1139.31678119504</v>
+        <v>2635.405932992692</v>
       </c>
       <c r="S2">
-        <v>0.01956841878801259</v>
+        <v>0.08468736316769325</v>
       </c>
       <c r="T2">
-        <v>0.01298110164510781</v>
+        <v>0.06330948167092076</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.095295</v>
+        <v>2.7354205</v>
       </c>
       <c r="H3">
-        <v>2.19059</v>
+        <v>5.470841</v>
       </c>
       <c r="I3">
-        <v>0.0366913822929187</v>
+        <v>0.1099128184465388</v>
       </c>
       <c r="J3">
-        <v>0.02977214083056145</v>
+        <v>0.08912955237205787</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>125.450742</v>
       </c>
       <c r="O3">
-        <v>0.08576108022407103</v>
+        <v>0.133770027207319</v>
       </c>
       <c r="P3">
-        <v>0.1051698675167548</v>
+        <v>0.1849808797181794</v>
       </c>
       <c r="Q3">
-        <v>45.80185681962999</v>
+        <v>114.386843802337</v>
       </c>
       <c r="R3">
-        <v>274.8111409177799</v>
+        <v>686.3210628140221</v>
       </c>
       <c r="S3">
-        <v>0.00314669258035506</v>
+        <v>0.01470304071402662</v>
       </c>
       <c r="T3">
-        <v>0.003131132106840312</v>
+        <v>0.01648726300667081</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.095295</v>
+        <v>2.7354205</v>
       </c>
       <c r="H4">
-        <v>2.19059</v>
+        <v>5.470841</v>
       </c>
       <c r="I4">
-        <v>0.0366913822929187</v>
+        <v>0.1099128184465388</v>
       </c>
       <c r="J4">
-        <v>0.02977214083056145</v>
+        <v>0.08912955237205787</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.002373666666667</v>
+        <v>3.307267666666667</v>
       </c>
       <c r="N4">
-        <v>24.007121</v>
+        <v>9.921803000000001</v>
       </c>
       <c r="O4">
-        <v>0.01641183302072443</v>
+        <v>0.01057976888853842</v>
       </c>
       <c r="P4">
-        <v>0.0201260326943997</v>
+        <v>0.01462999594956937</v>
       </c>
       <c r="Q4">
-        <v>8.764959865231667</v>
+        <v>9.046767774387167</v>
       </c>
       <c r="R4">
-        <v>52.58975919139</v>
+        <v>54.280606646323</v>
       </c>
       <c r="S4">
-        <v>0.0006021728394909466</v>
+        <v>0.001162852217052263</v>
       </c>
       <c r="T4">
-        <v>0.0005991950797381518</v>
+        <v>0.001303964990190138</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.095295</v>
+        <v>2.7354205</v>
       </c>
       <c r="H5">
-        <v>2.19059</v>
+        <v>5.470841</v>
       </c>
       <c r="I5">
-        <v>0.0366913822929187</v>
+        <v>0.1099128184465388</v>
       </c>
       <c r="J5">
-        <v>0.02977214083056145</v>
+        <v>0.08912955237205787</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.906257500000001</v>
+        <v>18.767532</v>
       </c>
       <c r="N5">
-        <v>19.812515</v>
+        <v>37.535064</v>
       </c>
       <c r="O5">
-        <v>0.02031645243304672</v>
+        <v>0.06003631129389966</v>
       </c>
       <c r="P5">
-        <v>0.01660954367032533</v>
+        <v>0.05534657705729765</v>
       </c>
       <c r="Q5">
-        <v>10.8502743084625</v>
+        <v>51.337091767206</v>
       </c>
       <c r="R5">
-        <v>43.40109723385</v>
+        <v>205.348367068824</v>
       </c>
       <c r="S5">
-        <v>0.0007454387230568153</v>
+        <v>0.006598760183446283</v>
       </c>
       <c r="T5">
-        <v>0.0004945016732842863</v>
+        <v>0.004933015638442548</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.095295</v>
+        <v>2.7354205</v>
       </c>
       <c r="H6">
-        <v>2.19059</v>
+        <v>5.470841</v>
       </c>
       <c r="I6">
-        <v>0.0366913822929187</v>
+        <v>0.1099128184465388</v>
       </c>
       <c r="J6">
-        <v>0.02977214083056145</v>
+        <v>0.08912955237205787</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>159.345759</v>
+        <v>1.967337333333333</v>
       </c>
       <c r="N6">
-        <v>478.037277</v>
+        <v>5.902012</v>
       </c>
       <c r="O6">
-        <v>0.3267975351065956</v>
+        <v>0.006293404831498911</v>
       </c>
       <c r="P6">
-        <v>0.4007558368220747</v>
+        <v>0.008702693618721296</v>
       </c>
       <c r="Q6">
-        <v>174.530613103905</v>
+        <v>5.381494872015333</v>
       </c>
       <c r="R6">
-        <v>1047.18367862343</v>
+        <v>32.288969232092</v>
       </c>
       <c r="S6">
-        <v>0.01199065329297962</v>
+        <v>0.0006917258626551102</v>
       </c>
       <c r="T6">
-        <v>0.01193135921253631</v>
+        <v>0.0007756671866677936</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.095295</v>
+        <v>2.7354205</v>
       </c>
       <c r="H7">
-        <v>2.19059</v>
+        <v>5.470841</v>
       </c>
       <c r="I7">
-        <v>0.0366913822929187</v>
+        <v>0.1099128184465388</v>
       </c>
       <c r="J7">
-        <v>0.02977214083056145</v>
+        <v>0.08912955237205787</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.478567333333332</v>
+        <v>5.884659333333333</v>
       </c>
       <c r="N7">
-        <v>25.435702</v>
+        <v>17.653978</v>
       </c>
       <c r="O7">
-        <v>0.01738844461978203</v>
+        <v>0.01882470426023795</v>
       </c>
       <c r="P7">
-        <v>0.02132366351038126</v>
+        <v>0.02603131977462027</v>
       </c>
       <c r="Q7">
-        <v>9.286532407363332</v>
+        <v>16.09701777591633</v>
       </c>
       <c r="R7">
-        <v>55.71919444417999</v>
+        <v>96.582106655498</v>
       </c>
       <c r="S7">
-        <v>0.000638006069023668</v>
+        <v>0.00206907630166532</v>
       </c>
       <c r="T7">
-        <v>0.0006348511130545751</v>
+        <v>0.002320159879165803</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>33.082211</v>
       </c>
       <c r="I8">
-        <v>0.3694079527725408</v>
+        <v>0.4430956838815202</v>
       </c>
       <c r="J8">
-        <v>0.4496177946938263</v>
+        <v>0.5389669811109423</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>260.047928</v>
+        <v>240.859306</v>
       </c>
       <c r="N8">
-        <v>520.0958559999999</v>
+        <v>481.718612</v>
       </c>
       <c r="O8">
-        <v>0.5333246545957802</v>
+        <v>0.770495783518506</v>
       </c>
       <c r="P8">
-        <v>0.4360150557860642</v>
+        <v>0.7103085338816119</v>
       </c>
       <c r="Q8">
-        <v>2867.653474736269</v>
+        <v>2656.052794135189</v>
       </c>
       <c r="R8">
-        <v>17205.92084841761</v>
+        <v>15936.31676481113</v>
       </c>
       <c r="S8">
-        <v>0.1970143688173496</v>
+        <v>0.3414033561259602</v>
       </c>
       <c r="T8">
-        <v>0.1960401278358359</v>
+        <v>0.3828328461635118</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>33.082211</v>
       </c>
       <c r="I9">
-        <v>0.3694079527725408</v>
+        <v>0.4430956838815202</v>
       </c>
       <c r="J9">
-        <v>0.4496177946938263</v>
+        <v>0.5389669811109423</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>125.450742</v>
       </c>
       <c r="O9">
-        <v>0.08576108022407103</v>
+        <v>0.133770027207319</v>
       </c>
       <c r="P9">
-        <v>0.1051698675167548</v>
+        <v>0.1849808797181794</v>
       </c>
       <c r="Q9">
-        <v>461.1319907722846</v>
+        <v>461.1319907722847</v>
       </c>
       <c r="R9">
         <v>4150.187916950562</v>
       </c>
       <c r="S9">
-        <v>0.03168082507313572</v>
+        <v>0.05927292168827659</v>
       </c>
       <c r="T9">
-        <v>0.04728624390112515</v>
+        <v>0.09969858630495351</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>33.082211</v>
       </c>
       <c r="I10">
-        <v>0.3694079527725408</v>
+        <v>0.4430956838815202</v>
       </c>
       <c r="J10">
-        <v>0.4496177946938263</v>
+        <v>0.5389669811109423</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.002373666666667</v>
+        <v>3.307267666666667</v>
       </c>
       <c r="N10">
-        <v>24.007121</v>
+        <v>9.921803000000001</v>
       </c>
       <c r="O10">
-        <v>0.01641183302072443</v>
+        <v>0.01057976888853842</v>
       </c>
       <c r="P10">
-        <v>0.0201260326943997</v>
+        <v>0.01462999594956937</v>
       </c>
       <c r="Q10">
-        <v>88.24540471383678</v>
+        <v>36.47057559404811</v>
       </c>
       <c r="R10">
-        <v>794.208642424531</v>
+        <v>328.235180346433</v>
       </c>
       <c r="S10">
-        <v>0.006062661637430594</v>
+        <v>0.00468784993097536</v>
       </c>
       <c r="T10">
-        <v>0.009049022435991838</v>
+        <v>0.007885084750604716</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>33.082211</v>
       </c>
       <c r="I11">
-        <v>0.3694079527725408</v>
+        <v>0.4430956838815202</v>
       </c>
       <c r="J11">
-        <v>0.4496177946938263</v>
+        <v>0.5389669811109423</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.906257500000001</v>
+        <v>18.767532</v>
       </c>
       <c r="N11">
-        <v>19.812515</v>
+        <v>37.535064</v>
       </c>
       <c r="O11">
-        <v>0.02031645243304672</v>
+        <v>0.06003631129389966</v>
       </c>
       <c r="P11">
-        <v>0.01660954367032533</v>
+        <v>0.05534657705729765</v>
       </c>
       <c r="Q11">
-        <v>109.2403002784442</v>
+        <v>206.957151191084</v>
       </c>
       <c r="R11">
-        <v>655.4418016706651</v>
+        <v>1241.742907146504</v>
       </c>
       <c r="S11">
-        <v>0.007505059100892494</v>
+        <v>0.02660183041049431</v>
       </c>
       <c r="T11">
-        <v>0.007467946395922479</v>
+        <v>0.02982997755139586</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>33.082211</v>
       </c>
       <c r="I12">
-        <v>0.3694079527725408</v>
+        <v>0.4430956838815202</v>
       </c>
       <c r="J12">
-        <v>0.4496177946938263</v>
+        <v>0.5389669811109423</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>159.345759</v>
+        <v>1.967337333333333</v>
       </c>
       <c r="N12">
-        <v>478.037277</v>
+        <v>5.902012</v>
       </c>
       <c r="O12">
-        <v>0.3267975351065956</v>
+        <v>0.006293404831498911</v>
       </c>
       <c r="P12">
-        <v>0.4007558368220747</v>
+        <v>0.008702693618721296</v>
       </c>
       <c r="Q12">
-        <v>1757.170007064383</v>
+        <v>21.69462292317022</v>
       </c>
       <c r="R12">
-        <v>15814.53006357945</v>
+        <v>195.251606308532</v>
       </c>
       <c r="S12">
-        <v>0.12072160841484</v>
+        <v>0.002788580517756273</v>
       </c>
       <c r="T12">
-        <v>0.1801869555626202</v>
+        <v>0.004690464507215678</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>33.082211</v>
       </c>
       <c r="I13">
-        <v>0.3694079527725408</v>
+        <v>0.4430956838815202</v>
       </c>
       <c r="J13">
-        <v>0.4496177946938263</v>
+        <v>0.5389669811109423</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.478567333333332</v>
+        <v>5.884659333333333</v>
       </c>
       <c r="N13">
-        <v>25.435702</v>
+        <v>17.653978</v>
       </c>
       <c r="O13">
-        <v>0.01738844461978203</v>
+        <v>0.01882470426023795</v>
       </c>
       <c r="P13">
-        <v>0.02132366351038126</v>
+        <v>0.02603131977462027</v>
       </c>
       <c r="Q13">
-        <v>93.49658449968021</v>
+        <v>64.89251390948421</v>
       </c>
       <c r="R13">
-        <v>841.469260497122</v>
+        <v>584.0326251853579</v>
       </c>
       <c r="S13">
-        <v>0.006423429728892383</v>
+        <v>0.0083411452080575</v>
       </c>
       <c r="T13">
-        <v>0.009587498562330838</v>
+        <v>0.01403002183326066</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.2940173333333333</v>
+        <v>0.3341113333333334</v>
       </c>
       <c r="H14">
-        <v>0.8820519999999999</v>
+        <v>1.002334</v>
       </c>
       <c r="I14">
-        <v>0.009849312174416792</v>
+        <v>0.013425035866185</v>
       </c>
       <c r="J14">
-        <v>0.01198790114255903</v>
+        <v>0.01632977100729015</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>260.047928</v>
+        <v>240.859306</v>
       </c>
       <c r="N14">
-        <v>520.0958559999999</v>
+        <v>481.718612</v>
       </c>
       <c r="O14">
-        <v>0.5333246545957802</v>
+        <v>0.770495783518506</v>
       </c>
       <c r="P14">
-        <v>0.4360150557860642</v>
+        <v>0.7103085338816119</v>
       </c>
       <c r="Q14">
-        <v>76.45859832941865</v>
+        <v>80.47382387340134</v>
       </c>
       <c r="R14">
-        <v>458.7515899765119</v>
+        <v>482.842943240408</v>
       </c>
       <c r="S14">
-        <v>0.005252881013426848</v>
+        <v>0.01034393352848025</v>
       </c>
       <c r="T14">
-        <v>0.005226905385430698</v>
+        <v>0.01159917570281072</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.2940173333333333</v>
+        <v>0.3341113333333334</v>
       </c>
       <c r="H15">
-        <v>0.8820519999999999</v>
+        <v>1.002334</v>
       </c>
       <c r="I15">
-        <v>0.009849312174416792</v>
+        <v>0.013425035866185</v>
       </c>
       <c r="J15">
-        <v>0.01198790114255903</v>
+        <v>0.01632977100729015</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>125.450742</v>
       </c>
       <c r="O15">
-        <v>0.08576108022407103</v>
+        <v>0.133770027207319</v>
       </c>
       <c r="P15">
-        <v>0.1051698675167548</v>
+        <v>0.1849808797181794</v>
       </c>
       <c r="Q15">
-        <v>12.29489754250933</v>
+        <v>13.97150489242534</v>
       </c>
       <c r="R15">
-        <v>110.654077882584</v>
+        <v>125.743544031828</v>
       </c>
       <c r="S15">
-        <v>0.000844687651542078</v>
+        <v>0.001795867413078801</v>
       </c>
       <c r="T15">
-        <v>0.001260765974966886</v>
+        <v>0.003020695406524953</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.2940173333333333</v>
+        <v>0.3341113333333334</v>
       </c>
       <c r="H16">
-        <v>0.8820519999999999</v>
+        <v>1.002334</v>
       </c>
       <c r="I16">
-        <v>0.009849312174416792</v>
+        <v>0.013425035866185</v>
       </c>
       <c r="J16">
-        <v>0.01198790114255903</v>
+        <v>0.01632977100729015</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.002373666666667</v>
+        <v>3.307267666666667</v>
       </c>
       <c r="N16">
-        <v>24.007121</v>
+        <v>9.921803000000001</v>
       </c>
       <c r="O16">
-        <v>0.01641183302072443</v>
+        <v>0.01057976888853842</v>
       </c>
       <c r="P16">
-        <v>0.0201260326943997</v>
+        <v>0.01462999594956937</v>
       </c>
       <c r="Q16">
-        <v>2.352836565810222</v>
+        <v>1.104995609800222</v>
       </c>
       <c r="R16">
-        <v>21.175529092292</v>
+        <v>9.944960488202002</v>
       </c>
       <c r="S16">
-        <v>0.0001616452667755166</v>
+        <v>0.0001420337767845764</v>
       </c>
       <c r="T16">
-        <v>0.0002412688903323745</v>
+        <v>0.0002389044836940502</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.2940173333333333</v>
+        <v>0.3341113333333334</v>
       </c>
       <c r="H17">
-        <v>0.8820519999999999</v>
+        <v>1.002334</v>
       </c>
       <c r="I17">
-        <v>0.009849312174416792</v>
+        <v>0.013425035866185</v>
       </c>
       <c r="J17">
-        <v>0.01198790114255903</v>
+        <v>0.01632977100729015</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>9.906257500000001</v>
+        <v>18.767532</v>
       </c>
       <c r="N17">
-        <v>19.812515</v>
+        <v>37.535064</v>
       </c>
       <c r="O17">
-        <v>0.02031645243304672</v>
+        <v>0.06003631129389966</v>
       </c>
       <c r="P17">
-        <v>0.01660954367032533</v>
+        <v>0.05534657705729765</v>
       </c>
       <c r="Q17">
-        <v>2.912611413463333</v>
+        <v>6.270445139896</v>
       </c>
       <c r="R17">
-        <v>17.47566848078</v>
+        <v>37.622670839376</v>
       </c>
       <c r="S17">
-        <v>0.0002001030822897667</v>
+        <v>0.0008059896323940502</v>
       </c>
       <c r="T17">
-        <v>0.0001991135675428772</v>
+        <v>0.0009037969293830095</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.2940173333333333</v>
+        <v>0.3341113333333334</v>
       </c>
       <c r="H18">
-        <v>0.8820519999999999</v>
+        <v>1.002334</v>
       </c>
       <c r="I18">
-        <v>0.009849312174416792</v>
+        <v>0.013425035866185</v>
       </c>
       <c r="J18">
-        <v>0.01198790114255903</v>
+        <v>0.01632977100729015</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>159.345759</v>
+        <v>1.967337333333333</v>
       </c>
       <c r="N18">
-        <v>478.037277</v>
+        <v>5.902012</v>
       </c>
       <c r="O18">
-        <v>0.3267975351065956</v>
+        <v>0.006293404831498911</v>
       </c>
       <c r="P18">
-        <v>0.4007558368220747</v>
+        <v>0.008702693618721296</v>
       </c>
       <c r="Q18">
-        <v>46.850415139156</v>
+        <v>0.6573096995564445</v>
       </c>
       <c r="R18">
-        <v>421.653736252404</v>
+        <v>5.915787296008</v>
       </c>
       <c r="S18">
-        <v>0.003218730941094792</v>
+        <v>8.448918558329482E-05</v>
       </c>
       <c r="T18">
-        <v>0.004804221354126549</v>
+        <v>0.000142112993940324</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.2940173333333333</v>
+        <v>0.3341113333333334</v>
       </c>
       <c r="H19">
-        <v>0.8820519999999999</v>
+        <v>1.002334</v>
       </c>
       <c r="I19">
-        <v>0.009849312174416792</v>
+        <v>0.013425035866185</v>
       </c>
       <c r="J19">
-        <v>0.01198790114255903</v>
+        <v>0.01632977100729015</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>8.478567333333332</v>
+        <v>5.884659333333333</v>
       </c>
       <c r="N19">
-        <v>25.435702</v>
+        <v>17.653978</v>
       </c>
       <c r="O19">
-        <v>0.01738844461978203</v>
+        <v>0.01882470426023795</v>
       </c>
       <c r="P19">
-        <v>0.02132366351038126</v>
+        <v>0.02603131977462027</v>
       </c>
       <c r="Q19">
-        <v>2.492845757833777</v>
+        <v>1.966131376072444</v>
       </c>
       <c r="R19">
-        <v>22.435611820504</v>
+        <v>17.695182384652</v>
       </c>
       <c r="S19">
-        <v>0.0001712642192877914</v>
+        <v>0.0002527223298640199</v>
       </c>
       <c r="T19">
-        <v>0.0002556259701596438</v>
+        <v>0.0004250854909370929</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>14.880867</v>
+        <v>10.5453555</v>
       </c>
       <c r="H20">
-        <v>29.761734</v>
+        <v>21.090711</v>
       </c>
       <c r="I20">
-        <v>0.4984954555138827</v>
+        <v>0.4237263501263187</v>
       </c>
       <c r="J20">
-        <v>0.4044894462266826</v>
+        <v>0.3436045080890556</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>260.047928</v>
+        <v>240.859306</v>
       </c>
       <c r="N20">
-        <v>520.0958559999999</v>
+        <v>481.718612</v>
       </c>
       <c r="O20">
-        <v>0.5333246545957802</v>
+        <v>0.770495783518506</v>
       </c>
       <c r="P20">
-        <v>0.4360150557860642</v>
+        <v>0.7103085338816119</v>
       </c>
       <c r="Q20">
-        <v>3869.738630193575</v>
+        <v>2539.947007253283</v>
       </c>
       <c r="R20">
-        <v>15478.9545207743</v>
+        <v>10159.78802901313</v>
       </c>
       <c r="S20">
-        <v>0.2658599166295076</v>
+        <v>0.3264793661380148</v>
       </c>
       <c r="T20">
-        <v>0.1763634884614012</v>
+        <v>0.2440652143758495</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>14.880867</v>
+        <v>10.5453555</v>
       </c>
       <c r="H21">
-        <v>29.761734</v>
+        <v>21.090711</v>
       </c>
       <c r="I21">
-        <v>0.4984954555138827</v>
+        <v>0.4237263501263187</v>
       </c>
       <c r="J21">
-        <v>0.4044894462266826</v>
+        <v>0.3436045080890556</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>125.450742</v>
       </c>
       <c r="O21">
-        <v>0.08576108022407103</v>
+        <v>0.133770027207319</v>
       </c>
       <c r="P21">
-        <v>0.1051698675167548</v>
+        <v>0.1849808797181794</v>
       </c>
       <c r="Q21">
-        <v>622.2719355844379</v>
+        <v>440.974224042927</v>
       </c>
       <c r="R21">
-        <v>3733.631613506627</v>
+        <v>2645.845344257562</v>
       </c>
       <c r="S21">
-        <v>0.04275150875166092</v>
+        <v>0.05668188538485565</v>
       </c>
       <c r="T21">
-        <v>0.04254010147158571</v>
+        <v>0.06356026418144581</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>14.880867</v>
+        <v>10.5453555</v>
       </c>
       <c r="H22">
-        <v>29.761734</v>
+        <v>21.090711</v>
       </c>
       <c r="I22">
-        <v>0.4984954555138827</v>
+        <v>0.4237263501263187</v>
       </c>
       <c r="J22">
-        <v>0.4044894462266826</v>
+        <v>0.3436045080890556</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>8.002373666666667</v>
+        <v>3.307267666666667</v>
       </c>
       <c r="N22">
-        <v>24.007121</v>
+        <v>9.921803000000001</v>
       </c>
       <c r="O22">
-        <v>0.01641183302072443</v>
+        <v>0.01057976888853842</v>
       </c>
       <c r="P22">
-        <v>0.0201260326943997</v>
+        <v>0.01462999594956937</v>
       </c>
       <c r="Q22">
-        <v>119.082258217969</v>
+        <v>34.8763132786555</v>
       </c>
       <c r="R22">
-        <v>714.493549307814</v>
+        <v>209.257879671933</v>
       </c>
       <c r="S22">
-        <v>0.008181224177483805</v>
+        <v>0.004482926856320363</v>
       </c>
       <c r="T22">
-        <v>0.008140767819297843</v>
+        <v>0.005026932561596659</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>14.880867</v>
+        <v>10.5453555</v>
       </c>
       <c r="H23">
-        <v>29.761734</v>
+        <v>21.090711</v>
       </c>
       <c r="I23">
-        <v>0.4984954555138827</v>
+        <v>0.4237263501263187</v>
       </c>
       <c r="J23">
-        <v>0.4044894462266826</v>
+        <v>0.3436045080890556</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>9.906257500000001</v>
+        <v>18.767532</v>
       </c>
       <c r="N23">
-        <v>19.812515</v>
+        <v>37.535064</v>
       </c>
       <c r="O23">
-        <v>0.02031645243304672</v>
+        <v>0.06003631129389966</v>
       </c>
       <c r="P23">
-        <v>0.01660954367032533</v>
+        <v>0.05534657705729765</v>
       </c>
       <c r="Q23">
-        <v>147.4137003252525</v>
+        <v>197.910296797626</v>
       </c>
       <c r="R23">
-        <v>589.65480130101</v>
+        <v>791.641187190504</v>
       </c>
       <c r="S23">
-        <v>0.01012765921003775</v>
+        <v>0.02543896705961159</v>
       </c>
       <c r="T23">
-        <v>0.006718385121287796</v>
+        <v>0.01901733338418577</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>14.880867</v>
+        <v>10.5453555</v>
       </c>
       <c r="H24">
-        <v>29.761734</v>
+        <v>21.090711</v>
       </c>
       <c r="I24">
-        <v>0.4984954555138827</v>
+        <v>0.4237263501263187</v>
       </c>
       <c r="J24">
-        <v>0.4044894462266826</v>
+        <v>0.3436045080890556</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>159.345759</v>
+        <v>1.967337333333333</v>
       </c>
       <c r="N24">
-        <v>478.037277</v>
+        <v>5.902012</v>
       </c>
       <c r="O24">
-        <v>0.3267975351065956</v>
+        <v>0.006293404831498911</v>
       </c>
       <c r="P24">
-        <v>0.4007558368220747</v>
+        <v>0.008702693618721296</v>
       </c>
       <c r="Q24">
-        <v>2371.203046693053</v>
+        <v>20.746271568422</v>
       </c>
       <c r="R24">
-        <v>14227.21828015832</v>
+        <v>124.477629410532</v>
       </c>
       <c r="S24">
-        <v>0.1629070861237765</v>
+        <v>0.002666681459118373</v>
       </c>
       <c r="T24">
-        <v>0.1621015065082718</v>
+        <v>0.002990284759910494</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>14.880867</v>
+        <v>10.5453555</v>
       </c>
       <c r="H25">
-        <v>29.761734</v>
+        <v>21.090711</v>
       </c>
       <c r="I25">
-        <v>0.4984954555138827</v>
+        <v>0.4237263501263187</v>
       </c>
       <c r="J25">
-        <v>0.4044894462266826</v>
+        <v>0.3436045080890556</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>8.478567333333332</v>
+        <v>5.884659333333333</v>
       </c>
       <c r="N25">
-        <v>25.435702</v>
+        <v>17.653978</v>
       </c>
       <c r="O25">
-        <v>0.01738844461978203</v>
+        <v>0.01882470426023795</v>
       </c>
       <c r="P25">
-        <v>0.02132366351038126</v>
+        <v>0.02603131977462027</v>
       </c>
       <c r="Q25">
-        <v>126.168432837878</v>
+        <v>62.05582466639299</v>
       </c>
       <c r="R25">
-        <v>757.0105970272679</v>
+        <v>372.334947998358</v>
       </c>
       <c r="S25">
-        <v>0.008668060621416169</v>
+        <v>0.007976523228397987</v>
       </c>
       <c r="T25">
-        <v>0.008625196844838236</v>
+        <v>0.008944478826067304</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>1.812639666666667</v>
+        <v>0.06815166666666667</v>
       </c>
       <c r="H26">
-        <v>5.437919000000001</v>
+        <v>0.204455</v>
       </c>
       <c r="I26">
-        <v>0.06072177355778616</v>
+        <v>0.002738424225877654</v>
       </c>
       <c r="J26">
-        <v>0.07390634043485357</v>
+        <v>0.003330928943142214</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>260.047928</v>
+        <v>240.859306</v>
       </c>
       <c r="N26">
-        <v>520.0958559999999</v>
+        <v>481.718612</v>
       </c>
       <c r="O26">
-        <v>0.5333246545957802</v>
+        <v>0.770495783518506</v>
       </c>
       <c r="P26">
-        <v>0.4360150557860642</v>
+        <v>0.7103085338816119</v>
       </c>
       <c r="Q26">
-        <v>471.3731895272773</v>
+        <v>16.41496313607667</v>
       </c>
       <c r="R26">
-        <v>2828.239137163664</v>
+        <v>98.48977881646</v>
       </c>
       <c r="S26">
-        <v>0.03238441890914948</v>
+        <v>0.002109944319523662</v>
       </c>
       <c r="T26">
-        <v>0.03222427714764653</v>
+        <v>0.002365987254067173</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>1.812639666666667</v>
+        <v>0.06815166666666667</v>
       </c>
       <c r="H27">
-        <v>5.437919000000001</v>
+        <v>0.204455</v>
       </c>
       <c r="I27">
-        <v>0.06072177355778616</v>
+        <v>0.002738424225877654</v>
       </c>
       <c r="J27">
-        <v>0.07390634043485357</v>
+        <v>0.003330928943142214</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>125.450742</v>
       </c>
       <c r="O27">
-        <v>0.08576108022407103</v>
+        <v>0.133770027207319</v>
       </c>
       <c r="P27">
-        <v>0.1051698675167548</v>
+        <v>0.1849808797181794</v>
       </c>
       <c r="Q27">
-        <v>75.79899705398867</v>
+        <v>2.849892383956667</v>
       </c>
       <c r="R27">
-        <v>682.1909734858981</v>
+        <v>25.64903145561</v>
       </c>
       <c r="S27">
-        <v>0.005207564893437175</v>
+        <v>0.0003663190832008354</v>
       </c>
       <c r="T27">
-        <v>0.007772720032181725</v>
+        <v>0.0006161581661811924</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>1.812639666666667</v>
+        <v>0.06815166666666667</v>
       </c>
       <c r="H28">
-        <v>5.437919000000001</v>
+        <v>0.204455</v>
       </c>
       <c r="I28">
-        <v>0.06072177355778616</v>
+        <v>0.002738424225877654</v>
       </c>
       <c r="J28">
-        <v>0.07390634043485357</v>
+        <v>0.003330928943142214</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>8.002373666666667</v>
+        <v>3.307267666666667</v>
       </c>
       <c r="N28">
-        <v>24.007121</v>
+        <v>9.921803000000001</v>
       </c>
       <c r="O28">
-        <v>0.01641183302072443</v>
+        <v>0.01057976888853842</v>
       </c>
       <c r="P28">
-        <v>0.0201260326943997</v>
+        <v>0.01462999594956937</v>
       </c>
       <c r="Q28">
-        <v>14.50541993568878</v>
+        <v>0.2253958035961111</v>
       </c>
       <c r="R28">
-        <v>130.548779421199</v>
+        <v>2.028562232365</v>
       </c>
       <c r="S28">
-        <v>0.0009965556083526264</v>
+        <v>2.89718954285603E-05</v>
       </c>
       <c r="T28">
-        <v>0.001487441423915297</v>
+        <v>4.873147694647396E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>1.812639666666667</v>
+        <v>0.06815166666666667</v>
       </c>
       <c r="H29">
-        <v>5.437919000000001</v>
+        <v>0.204455</v>
       </c>
       <c r="I29">
-        <v>0.06072177355778616</v>
+        <v>0.002738424225877654</v>
       </c>
       <c r="J29">
-        <v>0.07390634043485357</v>
+        <v>0.003330928943142214</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>9.906257500000001</v>
+        <v>18.767532</v>
       </c>
       <c r="N29">
-        <v>19.812515</v>
+        <v>37.535064</v>
       </c>
       <c r="O29">
-        <v>0.02031645243304672</v>
+        <v>0.06003631129389966</v>
       </c>
       <c r="P29">
-        <v>0.01660954367032533</v>
+        <v>0.05534657705729765</v>
       </c>
       <c r="Q29">
-        <v>17.95647529271417</v>
+        <v>1.27903858502</v>
       </c>
       <c r="R29">
-        <v>107.738851756285</v>
+        <v>7.674231510119999</v>
       </c>
       <c r="S29">
-        <v>0.001233651024136997</v>
+        <v>0.000164404889279547</v>
       </c>
       <c r="T29">
-        <v>0.001227550588966632</v>
+        <v>0.0001843555154240036</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>1.812639666666667</v>
+        <v>0.06815166666666667</v>
       </c>
       <c r="H30">
-        <v>5.437919000000001</v>
+        <v>0.204455</v>
       </c>
       <c r="I30">
-        <v>0.06072177355778616</v>
+        <v>0.002738424225877654</v>
       </c>
       <c r="J30">
-        <v>0.07390634043485357</v>
+        <v>0.003330928943142214</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>159.345759</v>
+        <v>1.967337333333333</v>
       </c>
       <c r="N30">
-        <v>478.037277</v>
+        <v>5.902012</v>
       </c>
       <c r="O30">
-        <v>0.3267975351065956</v>
+        <v>0.006293404831498911</v>
       </c>
       <c r="P30">
-        <v>0.4007558368220747</v>
+        <v>0.008702693618721296</v>
       </c>
       <c r="Q30">
-        <v>288.8364434785071</v>
+        <v>0.1340773181622222</v>
       </c>
       <c r="R30">
-        <v>2599.527991306563</v>
+        <v>1.20669586346</v>
       </c>
       <c r="S30">
-        <v>0.01984372592598537</v>
+        <v>1.72340122538321E-05</v>
       </c>
       <c r="T30">
-        <v>0.02961839730742688</v>
+        <v>2.898805405789781E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>1.812639666666667</v>
+        <v>0.06815166666666667</v>
       </c>
       <c r="H31">
-        <v>5.437919000000001</v>
+        <v>0.204455</v>
       </c>
       <c r="I31">
-        <v>0.06072177355778616</v>
+        <v>0.002738424225877654</v>
       </c>
       <c r="J31">
-        <v>0.07390634043485357</v>
+        <v>0.003330928943142214</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>8.478567333333332</v>
+        <v>5.884659333333333</v>
       </c>
       <c r="N31">
-        <v>25.435702</v>
+        <v>17.653978</v>
       </c>
       <c r="O31">
-        <v>0.01738844461978203</v>
+        <v>0.01882470426023795</v>
       </c>
       <c r="P31">
-        <v>0.02132366351038126</v>
+        <v>0.02603131977462027</v>
       </c>
       <c r="Q31">
-        <v>15.36858746490422</v>
+        <v>0.4010493413322221</v>
       </c>
       <c r="R31">
-        <v>138.317287184138</v>
+        <v>3.60944407199</v>
       </c>
       <c r="S31">
-        <v>0.00105585719672451</v>
+        <v>5.155002619121788E-05</v>
       </c>
       <c r="T31">
-        <v>0.001575953934716502</v>
+        <v>8.670847646547291E-05</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>0.7413373333333334</v>
+        <v>0.176741</v>
       </c>
       <c r="H32">
-        <v>2.224012</v>
+        <v>0.530223</v>
       </c>
       <c r="I32">
-        <v>0.02483412368845492</v>
+        <v>0.007101687453559598</v>
       </c>
       <c r="J32">
-        <v>0.03022637667151709</v>
+        <v>0.008638258477511892</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>260.047928</v>
+        <v>240.859306</v>
       </c>
       <c r="N32">
-        <v>520.0958559999999</v>
+        <v>481.718612</v>
       </c>
       <c r="O32">
-        <v>0.5333246545957802</v>
+        <v>0.770495783518506</v>
       </c>
       <c r="P32">
-        <v>0.4360150557860642</v>
+        <v>0.7103085338816119</v>
       </c>
       <c r="Q32">
-        <v>192.7832374823787</v>
+        <v>42.569714601746</v>
       </c>
       <c r="R32">
-        <v>1156.699424894272</v>
+        <v>255.418287610476</v>
       </c>
       <c r="S32">
-        <v>0.01324465043833411</v>
+        <v>0.005471820238833946</v>
       </c>
       <c r="T32">
-        <v>0.01317915531064211</v>
+        <v>0.006135828714451876</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>0.7413373333333334</v>
+        <v>0.176741</v>
       </c>
       <c r="H33">
-        <v>2.224012</v>
+        <v>0.530223</v>
       </c>
       <c r="I33">
-        <v>0.02483412368845492</v>
+        <v>0.007101687453559598</v>
       </c>
       <c r="J33">
-        <v>0.03022637667151709</v>
+        <v>0.008638258477511892</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>125.450742</v>
       </c>
       <c r="O33">
-        <v>0.08576108022407103</v>
+        <v>0.133770027207319</v>
       </c>
       <c r="P33">
-        <v>0.1051698675167548</v>
+        <v>0.1849808797181794</v>
       </c>
       <c r="Q33">
-        <v>31.00043951298933</v>
+        <v>7.390763197274001</v>
       </c>
       <c r="R33">
-        <v>279.003955616904</v>
+        <v>66.51686877546601</v>
       </c>
       <c r="S33">
-        <v>0.002129801273940086</v>
+        <v>0.0009499929238805437</v>
       </c>
       <c r="T33">
-        <v>0.003178904030054979</v>
+        <v>0.001597912652403171</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>0.7413373333333334</v>
+        <v>0.176741</v>
       </c>
       <c r="H34">
-        <v>2.224012</v>
+        <v>0.530223</v>
       </c>
       <c r="I34">
-        <v>0.02483412368845492</v>
+        <v>0.007101687453559598</v>
       </c>
       <c r="J34">
-        <v>0.03022637667151709</v>
+        <v>0.008638258477511892</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>8.002373666666667</v>
+        <v>3.307267666666667</v>
       </c>
       <c r="N34">
-        <v>24.007121</v>
+        <v>9.921803000000001</v>
       </c>
       <c r="O34">
-        <v>0.01641183302072443</v>
+        <v>0.01057976888853842</v>
       </c>
       <c r="P34">
-        <v>0.0201260326943997</v>
+        <v>0.01462999594956937</v>
       </c>
       <c r="Q34">
-        <v>5.932458354383557</v>
+        <v>0.5845297946743334</v>
       </c>
       <c r="R34">
-        <v>53.392125189452</v>
+        <v>5.260768152069001</v>
       </c>
       <c r="S34">
-        <v>0.0004075734911909392</v>
+        <v>7.513421197729344E-05</v>
       </c>
       <c r="T34">
-        <v>0.0006083370451241933</v>
+        <v>0.0001263776865373322</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>0.7413373333333334</v>
+        <v>0.176741</v>
       </c>
       <c r="H35">
-        <v>2.224012</v>
+        <v>0.530223</v>
       </c>
       <c r="I35">
-        <v>0.02483412368845492</v>
+        <v>0.007101687453559598</v>
       </c>
       <c r="J35">
-        <v>0.03022637667151709</v>
+        <v>0.008638258477511892</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>9.906257500000001</v>
+        <v>18.767532</v>
       </c>
       <c r="N35">
-        <v>19.812515</v>
+        <v>37.535064</v>
       </c>
       <c r="O35">
-        <v>0.02031645243304672</v>
+        <v>0.06003631129389966</v>
       </c>
       <c r="P35">
-        <v>0.01660954367032533</v>
+        <v>0.05534657705729765</v>
       </c>
       <c r="Q35">
-        <v>7.343878518363335</v>
+        <v>3.316992373212</v>
       </c>
       <c r="R35">
-        <v>44.06327111018</v>
+        <v>19.901954239272</v>
       </c>
       <c r="S35">
-        <v>0.0005045412926328932</v>
+        <v>0.0004263591186738856</v>
       </c>
       <c r="T35">
-        <v>0.0005020463233212661</v>
+        <v>0.0004780980384664667</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>0.7413373333333334</v>
+        <v>0.176741</v>
       </c>
       <c r="H36">
-        <v>2.224012</v>
+        <v>0.530223</v>
       </c>
       <c r="I36">
-        <v>0.02483412368845492</v>
+        <v>0.007101687453559598</v>
       </c>
       <c r="J36">
-        <v>0.03022637667151709</v>
+        <v>0.008638258477511892</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>159.345759</v>
+        <v>1.967337333333333</v>
       </c>
       <c r="N36">
-        <v>478.037277</v>
+        <v>5.902012</v>
       </c>
       <c r="O36">
-        <v>0.3267975351065956</v>
+        <v>0.006293404831498911</v>
       </c>
       <c r="P36">
-        <v>0.4007558368220747</v>
+        <v>0.008702693618721296</v>
       </c>
       <c r="Q36">
-        <v>118.128960055036</v>
+        <v>0.3477091676306667</v>
       </c>
       <c r="R36">
-        <v>1063.160640495324</v>
+        <v>3.129382508676</v>
       </c>
       <c r="S36">
-        <v>0.008115730407919387</v>
+        <v>4.469379413202717E-05</v>
       </c>
       <c r="T36">
-        <v>0.01211339687709307</v>
+        <v>7.517611692910788E-05</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>0.7413373333333334</v>
+        <v>0.176741</v>
       </c>
       <c r="H37">
-        <v>2.224012</v>
+        <v>0.530223</v>
       </c>
       <c r="I37">
-        <v>0.02483412368845492</v>
+        <v>0.007101687453559598</v>
       </c>
       <c r="J37">
-        <v>0.03022637667151709</v>
+        <v>0.008638258477511892</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>8.478567333333332</v>
+        <v>5.884659333333333</v>
       </c>
       <c r="N37">
-        <v>25.435702</v>
+        <v>17.653978</v>
       </c>
       <c r="O37">
-        <v>0.01738844461978203</v>
+        <v>0.01882470426023795</v>
       </c>
       <c r="P37">
-        <v>0.02132366351038126</v>
+        <v>0.02603131977462027</v>
       </c>
       <c r="Q37">
-        <v>6.285478497380445</v>
+        <v>1.040060575232667</v>
       </c>
       <c r="R37">
-        <v>56.569306476424</v>
+        <v>9.360545177094</v>
       </c>
       <c r="S37">
-        <v>0.0004318267844375156</v>
+        <v>0.0001336871660619017</v>
       </c>
       <c r="T37">
-        <v>0.0006445370852814685</v>
+        <v>0.0002248652687239365</v>
       </c>
     </row>
   </sheetData>
